--- a/pred_ohlcv/54_21/2019-10-20 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 INS ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>10846.5178776859</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>18175.48277768591</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>17594.48277768591</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>17008.20037768591</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>17009.20037768591</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>13743.57357768591</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>13745.57357768591</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-13482.2151223141</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-13479.2151223141</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40237.76102231409</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-178228.7501737039</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-178226.7501737039</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-177146.7502737039</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-177143.7502737039</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-185376.4432737039</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-184994.4823737039</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-183794.2416737039</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-183798.5063737039</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-183796.5063737039</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-167240.2192737039</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-169601.9328737039</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-20 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 INS ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>18175.48277768591</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>13743.57357768591</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>13791.7305776859</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-13482.2151223141</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40237.76102231409</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-40245.2989223141</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-185228.0887737039</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-185376.4432737039</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-184994.4823737039</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-183794.2416737039</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-183792.2416737039</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-183798.5063737039</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-183796.5063737039</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-167240.2192737039</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-169601.9328737039</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-159726.483968807</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
